--- a/ChuangYeRen_Project/相关表B.xlsx
+++ b/ChuangYeRen_Project/相关表B.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
   <si>
     <t>接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -725,6 +725,10 @@
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvStockBE.InvStock 进出仓明细主表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1227,9 +1231,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1319,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1328,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1345,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1538,9 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2320,7 +2328,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58352BFE-E4D7-4CDA-9AAE-4B7236C77476}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C7F8CB-836D-432D-B8C4-572817D4D84C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>